--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type2/pd_results_W5_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5412844036697247</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5267857142857143</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6900584795321636</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1303582715257143</v>
+        <v>0.117330428819275</v>
       </c>
       <c r="J2" t="n">
-        <v>1690.006339271921</v>
+        <v>1550.750895055239</v>
       </c>
       <c r="K2" t="n">
-        <v>3963440.110078698</v>
+        <v>3323579.357357791</v>
       </c>
       <c r="L2" t="n">
-        <v>1990.839046753579</v>
+        <v>1823.068665014511</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2695851314457767</v>
+        <v>0.387503857252477</v>
       </c>
     </row>
   </sheetData>
